--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema3a-Plxna4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema3a-Plxna4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Sema3a</t>
+  </si>
+  <si>
+    <t>Plxna4</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Sema3a</t>
-  </si>
-  <si>
-    <t>Plxna4</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.072431333333333</v>
+        <v>0.7828983333333334</v>
       </c>
       <c r="H2">
-        <v>3.217294</v>
+        <v>2.348695</v>
       </c>
       <c r="I2">
-        <v>0.2939553384953704</v>
+        <v>0.1255011010959021</v>
       </c>
       <c r="J2">
-        <v>0.3390161022675017</v>
+        <v>0.1633296112897183</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.005984666666667</v>
+        <v>3.767201333333333</v>
       </c>
       <c r="N2">
-        <v>9.017954</v>
+        <v>11.301604</v>
       </c>
       <c r="O2">
-        <v>0.50248195759901</v>
+        <v>0.6940893780398565</v>
       </c>
       <c r="P2">
-        <v>0.5387571684551946</v>
+        <v>0.7011526057336961</v>
       </c>
       <c r="Q2">
-        <v>3.223712144052889</v>
+        <v>2.949335645197777</v>
       </c>
       <c r="R2">
-        <v>29.013409296476</v>
+        <v>26.54402080678</v>
       </c>
       <c r="S2">
-        <v>0.1477072539338333</v>
+        <v>0.08710898120297182</v>
       </c>
       <c r="T2">
-        <v>0.1826473553183559</v>
+        <v>0.1145189825492577</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.072431333333333</v>
+        <v>0.7828983333333334</v>
       </c>
       <c r="H3">
-        <v>3.217294</v>
+        <v>2.348695</v>
       </c>
       <c r="I3">
-        <v>0.2939553384953704</v>
+        <v>0.1255011010959021</v>
       </c>
       <c r="J3">
-        <v>0.3390161022675017</v>
+        <v>0.1633296112897183</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.740545</v>
       </c>
       <c r="O3">
-        <v>0.2084238147685372</v>
+        <v>0.2297260240741133</v>
       </c>
       <c r="P3">
-        <v>0.2234703606471308</v>
+        <v>0.2320637737452267</v>
       </c>
       <c r="Q3">
-        <v>1.337159220581111</v>
+        <v>0.9761554820861111</v>
       </c>
       <c r="R3">
-        <v>12.03443298523</v>
+        <v>8.785399338775001</v>
       </c>
       <c r="S3">
-        <v>0.06126729302078172</v>
+        <v>0.02883086897168493</v>
       </c>
       <c r="T3">
-        <v>0.07576005063890319</v>
+        <v>0.03790288596023302</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,14 +649,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.072431333333333</v>
+        <v>0.7828983333333334</v>
       </c>
       <c r="H4">
-        <v>3.217294</v>
+        <v>2.348695</v>
       </c>
       <c r="I4">
-        <v>0.2939553384953704</v>
+        <v>0.1255011010959021</v>
       </c>
       <c r="J4">
-        <v>0.3390161022675017</v>
+        <v>0.1633296112897183</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2670836666666667</v>
+        <v>0.041384</v>
       </c>
       <c r="N4">
-        <v>0.801251</v>
+        <v>0.124152</v>
       </c>
       <c r="O4">
-        <v>0.04464584439088561</v>
+        <v>0.007624810112122514</v>
       </c>
       <c r="P4">
-        <v>0.04786892015438238</v>
+        <v>0.007702402093282498</v>
       </c>
       <c r="Q4">
-        <v>0.2864288927548889</v>
+        <v>0.03239946462666667</v>
       </c>
       <c r="R4">
-        <v>2.577860034794</v>
+        <v>0.29159518164</v>
       </c>
       <c r="S4">
-        <v>0.01312388430033441</v>
+        <v>0.000956922064718544</v>
       </c>
       <c r="T4">
-        <v>0.01622833473049297</v>
+        <v>0.001258030339892943</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.072431333333333</v>
+        <v>0.7828983333333334</v>
       </c>
       <c r="H5">
-        <v>3.217294</v>
+        <v>2.348695</v>
       </c>
       <c r="I5">
-        <v>0.2939553384953704</v>
+        <v>0.1255011010959021</v>
       </c>
       <c r="J5">
-        <v>0.3390161022675017</v>
+        <v>0.1633296112897183</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.2083825</v>
+        <v>0.164027</v>
       </c>
       <c r="N5">
-        <v>2.416765</v>
+        <v>0.328054</v>
       </c>
       <c r="O5">
-        <v>0.2019938460969259</v>
+        <v>0.03022121419536825</v>
       </c>
       <c r="P5">
-        <v>0.1443841328334141</v>
+        <v>0.02035250190339017</v>
       </c>
       <c r="Q5">
-        <v>1.295907255651666</v>
+        <v>0.1284164649216667</v>
       </c>
       <c r="R5">
-        <v>7.775443533909999</v>
+        <v>0.77049878953</v>
       </c>
       <c r="S5">
-        <v>0.0593771694034036</v>
+        <v>0.003792795657973821</v>
       </c>
       <c r="T5">
-        <v>0.04894854594245727</v>
+        <v>0.003324166224653969</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.072431333333333</v>
+        <v>0.7828983333333334</v>
       </c>
       <c r="H6">
-        <v>3.217294</v>
+        <v>2.348695</v>
       </c>
       <c r="I6">
-        <v>0.2939553384953704</v>
+        <v>0.1255011010959021</v>
       </c>
       <c r="J6">
-        <v>0.3390161022675017</v>
+        <v>0.1633296112897183</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2539746666666666</v>
+        <v>0.2080843333333333</v>
       </c>
       <c r="N6">
-        <v>0.7619239999999999</v>
+        <v>0.6242529999999999</v>
       </c>
       <c r="O6">
-        <v>0.04245453714464147</v>
+        <v>0.03833857357853934</v>
       </c>
       <c r="P6">
-        <v>0.04551941790987797</v>
+        <v>0.03872871652440459</v>
       </c>
       <c r="Q6">
-        <v>0.2723703904062222</v>
+        <v>0.1629088777594444</v>
       </c>
       <c r="R6">
-        <v>2.451333513655999</v>
+        <v>1.466179899835</v>
       </c>
       <c r="S6">
-        <v>0.01247973783701736</v>
+        <v>0.004811533198552946</v>
       </c>
       <c r="T6">
-        <v>0.01543181563729234</v>
+        <v>0.006325546215680693</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>3.36251</v>
       </c>
       <c r="I7">
-        <v>0.307223326573222</v>
+        <v>0.1796736943051276</v>
       </c>
       <c r="J7">
-        <v>0.35431795603246</v>
+        <v>0.2338308938613957</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.005984666666667</v>
+        <v>3.767201333333333</v>
       </c>
       <c r="N7">
-        <v>9.017954</v>
+        <v>11.301604</v>
       </c>
       <c r="O7">
-        <v>0.50248195759901</v>
+        <v>0.6940893780398565</v>
       </c>
       <c r="P7">
-        <v>0.5387571684551946</v>
+        <v>0.7011526057336961</v>
       </c>
       <c r="Q7">
-        <v>3.369217833837778</v>
+        <v>4.222417385115556</v>
       </c>
       <c r="R7">
-        <v>30.32296050454</v>
+        <v>38.00175646604</v>
       </c>
       <c r="S7">
-        <v>0.1543741785565926</v>
+        <v>0.1247096027303693</v>
       </c>
       <c r="T7">
-        <v>0.1908913387248803</v>
+        <v>0.1639511405319569</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>3.36251</v>
       </c>
       <c r="I8">
-        <v>0.307223326573222</v>
+        <v>0.1796736943051276</v>
       </c>
       <c r="J8">
-        <v>0.35431795603246</v>
+        <v>0.2338308938613957</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>3.740545</v>
       </c>
       <c r="O8">
-        <v>0.2084238147685372</v>
+        <v>0.2297260240741133</v>
       </c>
       <c r="P8">
-        <v>0.2234703606471308</v>
+        <v>0.2320637737452267</v>
       </c>
       <c r="Q8">
         <v>1.397513329772222</v>
@@ -948,10 +948,10 @@
         <v>12.57761996795</v>
       </c>
       <c r="S8">
-        <v>0.06403265771027104</v>
+        <v>0.04127572342342462</v>
       </c>
       <c r="T8">
-        <v>0.07917956141832808</v>
+        <v>0.05426367964769505</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>3.36251</v>
       </c>
       <c r="I9">
-        <v>0.307223326573222</v>
+        <v>0.1796736943051276</v>
       </c>
       <c r="J9">
-        <v>0.35431795603246</v>
+        <v>0.2338308938613957</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2670836666666667</v>
+        <v>0.041384</v>
       </c>
       <c r="N9">
-        <v>0.801251</v>
+        <v>0.124152</v>
       </c>
       <c r="O9">
-        <v>0.04464584439088561</v>
+        <v>0.007624810112122514</v>
       </c>
       <c r="P9">
-        <v>0.04786892015438238</v>
+        <v>0.007702402093282498</v>
       </c>
       <c r="Q9">
-        <v>0.2993571666677778</v>
+        <v>0.04638470461333333</v>
       </c>
       <c r="R9">
-        <v>2.694214500010001</v>
+        <v>0.4174623415200001</v>
       </c>
       <c r="S9">
-        <v>0.0137162448314383</v>
+        <v>0.001369977801220147</v>
       </c>
       <c r="T9">
-        <v>0.0169608179465818</v>
+        <v>0.001801059566352132</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1042,10 +1042,10 @@
         <v>3.36251</v>
       </c>
       <c r="I10">
-        <v>0.307223326573222</v>
+        <v>0.1796736943051276</v>
       </c>
       <c r="J10">
-        <v>0.35431795603246</v>
+        <v>0.2338308938613957</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.2083825</v>
+        <v>0.164027</v>
       </c>
       <c r="N10">
-        <v>2.416765</v>
+        <v>0.328054</v>
       </c>
       <c r="O10">
-        <v>0.2019938460969259</v>
+        <v>0.03022121419536825</v>
       </c>
       <c r="P10">
-        <v>0.1443841328334141</v>
+        <v>0.02035250190339017</v>
       </c>
       <c r="Q10">
-        <v>1.354399413358333</v>
+        <v>0.1838474759233333</v>
       </c>
       <c r="R10">
-        <v>8.126396480149999</v>
+        <v>1.10308485554</v>
       </c>
       <c r="S10">
-        <v>0.06205722134521702</v>
+        <v>0.005429957200868378</v>
       </c>
       <c r="T10">
-        <v>0.05115789082905449</v>
+        <v>0.004759043712385481</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,40 +1104,40 @@
         <v>3.36251</v>
       </c>
       <c r="I11">
-        <v>0.307223326573222</v>
+        <v>0.1796736943051276</v>
       </c>
       <c r="J11">
-        <v>0.35431795603246</v>
+        <v>0.2338308938613957</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2539746666666666</v>
+        <v>0.2080843333333333</v>
       </c>
       <c r="N11">
-        <v>0.7619239999999999</v>
+        <v>0.6242529999999999</v>
       </c>
       <c r="O11">
-        <v>0.04245453714464147</v>
+        <v>0.03833857357853934</v>
       </c>
       <c r="P11">
-        <v>0.04551941790987797</v>
+        <v>0.03872871652440459</v>
       </c>
       <c r="Q11">
-        <v>0.2846641188044444</v>
+        <v>0.2332285505588889</v>
       </c>
       <c r="R11">
-        <v>2.56197706924</v>
+        <v>2.09905695503</v>
       </c>
       <c r="S11">
-        <v>0.01304302412970317</v>
+        <v>0.00688843314924512</v>
       </c>
       <c r="T11">
-        <v>0.01612834711361531</v>
+        <v>0.009055970403006134</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.4547475</v>
+        <v>4.334444</v>
       </c>
       <c r="H12">
-        <v>2.909495</v>
+        <v>8.668888000000001</v>
       </c>
       <c r="I12">
-        <v>0.3987488806939563</v>
+        <v>0.6948252045989703</v>
       </c>
       <c r="J12">
-        <v>0.3065823808662761</v>
+        <v>0.6028394948488859</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.005984666666667</v>
+        <v>3.767201333333333</v>
       </c>
       <c r="N12">
-        <v>9.017954</v>
+        <v>11.301604</v>
       </c>
       <c r="O12">
-        <v>0.50248195759901</v>
+        <v>0.6940893780398565</v>
       </c>
       <c r="P12">
-        <v>0.5387571684551946</v>
+        <v>0.7011526057336961</v>
       </c>
       <c r="Q12">
-        <v>4.372948678871666</v>
+        <v>16.32872321605867</v>
       </c>
       <c r="R12">
-        <v>26.23769207323</v>
+        <v>97.972339296352</v>
       </c>
       <c r="S12">
-        <v>0.2003641181615133</v>
+        <v>0.4822707941065154</v>
       </c>
       <c r="T12">
-        <v>0.1651734554137669</v>
+        <v>0.4226824826524814</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.4547475</v>
+        <v>4.334444</v>
       </c>
       <c r="H13">
-        <v>2.909495</v>
+        <v>8.668888000000001</v>
       </c>
       <c r="I13">
-        <v>0.3987488806939563</v>
+        <v>0.6948252045989703</v>
       </c>
       <c r="J13">
-        <v>0.3065823808662761</v>
+        <v>0.6028394948488859</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>3.740545</v>
       </c>
       <c r="O13">
-        <v>0.2084238147685372</v>
+        <v>0.2297260240741133</v>
       </c>
       <c r="P13">
-        <v>0.2234703606471308</v>
+        <v>0.2320637737452267</v>
       </c>
       <c r="Q13">
-        <v>1.813849495795834</v>
+        <v>5.404394277326667</v>
       </c>
       <c r="R13">
-        <v>10.883096974775</v>
+        <v>32.42636566396001</v>
       </c>
       <c r="S13">
-        <v>0.08310876284891869</v>
+        <v>0.1596194316790037</v>
       </c>
       <c r="T13">
-        <v>0.06851207522024275</v>
+        <v>0.1398972081372986</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.4547475</v>
+        <v>4.334444</v>
       </c>
       <c r="H14">
-        <v>2.909495</v>
+        <v>8.668888000000001</v>
       </c>
       <c r="I14">
-        <v>0.3987488806939563</v>
+        <v>0.6948252045989703</v>
       </c>
       <c r="J14">
-        <v>0.3065823808662761</v>
+        <v>0.6028394948488859</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2670836666666667</v>
+        <v>0.041384</v>
       </c>
       <c r="N14">
-        <v>0.801251</v>
+        <v>0.124152</v>
       </c>
       <c r="O14">
-        <v>0.04464584439088561</v>
+        <v>0.007624810112122514</v>
       </c>
       <c r="P14">
-        <v>0.04786892015438238</v>
+        <v>0.007702402093282498</v>
       </c>
       <c r="Q14">
-        <v>0.3885392963741667</v>
+        <v>0.179376630496</v>
       </c>
       <c r="R14">
-        <v>2.331235778245</v>
+        <v>1.076259782976</v>
       </c>
       <c r="S14">
-        <v>0.01780248047850218</v>
+        <v>0.005297910246183824</v>
       </c>
       <c r="T14">
-        <v>0.01467576751042822</v>
+        <v>0.004643312187037422</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.4547475</v>
+        <v>4.334444</v>
       </c>
       <c r="H15">
-        <v>2.909495</v>
+        <v>8.668888000000001</v>
       </c>
       <c r="I15">
-        <v>0.3987488806939563</v>
+        <v>0.6948252045989703</v>
       </c>
       <c r="J15">
-        <v>0.3065823808662761</v>
+        <v>0.6028394948488859</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.2083825</v>
+        <v>0.164027</v>
       </c>
       <c r="N15">
-        <v>2.416765</v>
+        <v>0.328054</v>
       </c>
       <c r="O15">
-        <v>0.2019938460969259</v>
+        <v>0.03022121419536825</v>
       </c>
       <c r="P15">
-        <v>0.1443841328334141</v>
+        <v>0.02035250190339017</v>
       </c>
       <c r="Q15">
-        <v>1.75789142091875</v>
+        <v>0.7109658459879999</v>
       </c>
       <c r="R15">
-        <v>7.031565683675</v>
+        <v>2.843863383952</v>
       </c>
       <c r="S15">
-        <v>0.08054482003821647</v>
+        <v>0.02099846133652605</v>
       </c>
       <c r="T15">
-        <v>0.04426563120338077</v>
+        <v>0.01226929196635072</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1408,356 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.4547475</v>
+        <v>4.334444</v>
       </c>
       <c r="H16">
-        <v>2.909495</v>
+        <v>8.668888000000001</v>
       </c>
       <c r="I16">
-        <v>0.3987488806939563</v>
+        <v>0.6948252045989703</v>
       </c>
       <c r="J16">
-        <v>0.3065823808662761</v>
+        <v>0.6028394948488859</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2539746666666666</v>
+        <v>0.2080843333333333</v>
       </c>
       <c r="N16">
-        <v>0.7619239999999999</v>
+        <v>0.6242529999999999</v>
       </c>
       <c r="O16">
-        <v>0.04245453714464147</v>
+        <v>0.03833857357853934</v>
       </c>
       <c r="P16">
-        <v>0.04551941790987797</v>
+        <v>0.03872871652440459</v>
       </c>
       <c r="Q16">
-        <v>0.3694690113966666</v>
+        <v>0.9019298901106667</v>
       </c>
       <c r="R16">
-        <v>2.21681406838</v>
+        <v>5.411579340664</v>
       </c>
       <c r="S16">
-        <v>0.01692869916680578</v>
+        <v>0.02663860723074128</v>
       </c>
       <c r="T16">
-        <v>0.0139554515184574</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.0002643333333333333</v>
-      </c>
-      <c r="H17">
-        <v>0.000793</v>
-      </c>
-      <c r="I17">
-        <v>7.245423745135779E-05</v>
-      </c>
-      <c r="J17">
-        <v>8.356083376220166E-05</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>3.005984666666667</v>
-      </c>
-      <c r="N17">
-        <v>9.017954</v>
-      </c>
-      <c r="O17">
-        <v>0.50248195759901</v>
-      </c>
-      <c r="P17">
-        <v>0.5387571684551946</v>
-      </c>
-      <c r="Q17">
-        <v>0.0007945819468888888</v>
-      </c>
-      <c r="R17">
-        <v>0.007151237521999999</v>
-      </c>
-      <c r="S17">
-        <v>3.640694707090177E-05</v>
-      </c>
-      <c r="T17">
-        <v>4.501899819147899E-05</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.0002643333333333333</v>
-      </c>
-      <c r="H18">
-        <v>0.000793</v>
-      </c>
-      <c r="I18">
-        <v>7.245423745135779E-05</v>
-      </c>
-      <c r="J18">
-        <v>8.356083376220166E-05</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>1.246848333333333</v>
-      </c>
-      <c r="N18">
-        <v>3.740545</v>
-      </c>
-      <c r="O18">
-        <v>0.2084238147685372</v>
-      </c>
-      <c r="P18">
-        <v>0.2234703606471308</v>
-      </c>
-      <c r="Q18">
-        <v>0.0003295835761111111</v>
-      </c>
-      <c r="R18">
-        <v>0.002966252185</v>
-      </c>
-      <c r="S18">
-        <v>1.510118856575741E-05</v>
-      </c>
-      <c r="T18">
-        <v>1.867336965681415E-05</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.0002643333333333333</v>
-      </c>
-      <c r="H19">
-        <v>0.000793</v>
-      </c>
-      <c r="I19">
-        <v>7.245423745135779E-05</v>
-      </c>
-      <c r="J19">
-        <v>8.356083376220166E-05</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.2670836666666667</v>
-      </c>
-      <c r="N19">
-        <v>0.801251</v>
-      </c>
-      <c r="O19">
-        <v>0.04464584439088561</v>
-      </c>
-      <c r="P19">
-        <v>0.04786892015438238</v>
-      </c>
-      <c r="Q19">
-        <v>7.059911588888889E-05</v>
-      </c>
-      <c r="R19">
-        <v>0.000635392043</v>
-      </c>
-      <c r="S19">
-        <v>3.234780610713596E-06</v>
-      </c>
-      <c r="T19">
-        <v>3.999966879396451E-06</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.0002643333333333333</v>
-      </c>
-      <c r="H20">
-        <v>0.000793</v>
-      </c>
-      <c r="I20">
-        <v>7.245423745135779E-05</v>
-      </c>
-      <c r="J20">
-        <v>8.356083376220166E-05</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1.2083825</v>
-      </c>
-      <c r="N20">
-        <v>2.416765</v>
-      </c>
-      <c r="O20">
-        <v>0.2019938460969259</v>
-      </c>
-      <c r="P20">
-        <v>0.1443841328334141</v>
-      </c>
-      <c r="Q20">
-        <v>0.0003194157741666666</v>
-      </c>
-      <c r="R20">
-        <v>0.001916494645</v>
-      </c>
-      <c r="S20">
-        <v>1.463531008881969E-05</v>
-      </c>
-      <c r="T20">
-        <v>1.206485852159256E-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.0002643333333333333</v>
-      </c>
-      <c r="H21">
-        <v>0.000793</v>
-      </c>
-      <c r="I21">
-        <v>7.245423745135779E-05</v>
-      </c>
-      <c r="J21">
-        <v>8.356083376220166E-05</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.2539746666666666</v>
-      </c>
-      <c r="N21">
-        <v>0.7619239999999999</v>
-      </c>
-      <c r="O21">
-        <v>0.04245453714464147</v>
-      </c>
-      <c r="P21">
-        <v>0.04551941790987797</v>
-      </c>
-      <c r="Q21">
-        <v>6.713397022222221E-05</v>
-      </c>
-      <c r="R21">
-        <v>0.0006042057319999999</v>
-      </c>
-      <c r="S21">
-        <v>3.076011115165342E-06</v>
-      </c>
-      <c r="T21">
-        <v>3.803640512919498E-06</v>
+        <v>0.02334719990571776</v>
       </c>
     </row>
   </sheetData>
